--- a/doors-detector/results/house21_door_no_door.xlsx
+++ b/doors-detector/results/house21_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6821042625340364</v>
+        <v>0.6964728147511002</v>
       </c>
       <c r="F2" t="n">
         <v>5510</v>
       </c>
       <c r="G2" t="n">
-        <v>4215</v>
+        <v>4255</v>
       </c>
       <c r="H2" t="n">
-        <v>1295</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6638850571676055</v>
+        <v>0.6749061491977206</v>
       </c>
       <c r="F3" t="n">
         <v>372</v>
       </c>
       <c r="G3" t="n">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H3" t="n">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7977836102954382</v>
+        <v>0.8091796959941159</v>
       </c>
       <c r="F4" t="n">
         <v>5510</v>
       </c>
       <c r="G4" t="n">
-        <v>4661</v>
+        <v>4693</v>
       </c>
       <c r="H4" t="n">
-        <v>849</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7008580438585914</v>
+        <v>0.7052978903353339</v>
       </c>
       <c r="F5" t="n">
         <v>372</v>
       </c>
       <c r="G5" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H5" t="n">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8007612629957923</v>
+        <v>0.8144581408126303</v>
       </c>
       <c r="F6" t="n">
         <v>5510</v>
       </c>
       <c r="G6" t="n">
-        <v>4677</v>
+        <v>4734</v>
       </c>
       <c r="H6" t="n">
-        <v>833</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7549622540816545</v>
+        <v>0.7490196584673058</v>
       </c>
       <c r="F7" t="n">
         <v>372</v>
       </c>
       <c r="G7" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H7" t="n">
-        <v>349</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8033115295256641</v>
+        <v>0.8256988615533528</v>
       </c>
       <c r="F8" t="n">
         <v>5510</v>
       </c>
       <c r="G8" t="n">
-        <v>4669</v>
+        <v>4762</v>
       </c>
       <c r="H8" t="n">
-        <v>841</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8097108803954761</v>
+        <v>0.8206939717512387</v>
       </c>
       <c r="F9" t="n">
         <v>372</v>
       </c>
       <c r="G9" t="n">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H9" t="n">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
